--- a/src/test/resources/testdata/Leadsdata1.xlsx
+++ b/src/test/resources/testdata/Leadsdata1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="203">
   <si>
     <t>phone1</t>
   </si>
@@ -20,10 +20,604 @@
     <t>bandwithsendId</t>
   </si>
   <si>
+    <t>4010001</t>
+  </si>
+  <si>
+    <t>1716359845982nljlc6y4rc34fu3h</t>
+  </si>
+  <si>
+    <t>4010002</t>
+  </si>
+  <si>
+    <t>1716359846448okmaurnyfkm6326g</t>
+  </si>
+  <si>
+    <t>4010003</t>
+  </si>
+  <si>
+    <t>1716359846675sezujtcktgtqofg3</t>
+  </si>
+  <si>
+    <t>4010004</t>
+  </si>
+  <si>
+    <t>1716359847019ta5ebaj5ylfbpzvx</t>
+  </si>
+  <si>
+    <t>4010005</t>
+  </si>
+  <si>
+    <t>1716359847500ysarx2jgmrq42znp</t>
+  </si>
+  <si>
+    <t>4010006</t>
+  </si>
+  <si>
+    <t>1716359847751axcacxbx3kimrepe</t>
+  </si>
+  <si>
+    <t>4010007</t>
+  </si>
+  <si>
+    <t>1716359848171lnu6r4ixywnb3dbp</t>
+  </si>
+  <si>
+    <t>4010008</t>
+  </si>
+  <si>
+    <t>1716359848508owlqp5wdjx2xuiwh</t>
+  </si>
+  <si>
+    <t>4010009</t>
+  </si>
+  <si>
+    <t>1716359848915wbu43fzoo6ff4zp3</t>
+  </si>
+  <si>
     <t>4010010</t>
   </si>
   <si>
-    <t>17162936664442qlhbz2f65q4dqcu</t>
+    <t>1716359849213v34olgz4x6npmrhy</t>
+  </si>
+  <si>
+    <t>4010011</t>
+  </si>
+  <si>
+    <t>1716359849584zgowznsqakh4bic6</t>
+  </si>
+  <si>
+    <t>4010012</t>
+  </si>
+  <si>
+    <t>1716359849972zujpya7punbpmxzf</t>
+  </si>
+  <si>
+    <t>4010013</t>
+  </si>
+  <si>
+    <t>17163598503446lwxesyfqsiwxw2h</t>
+  </si>
+  <si>
+    <t>4010014</t>
+  </si>
+  <si>
+    <t>171635985087267ky4qlr4c5jg2p2</t>
+  </si>
+  <si>
+    <t>4010015</t>
+  </si>
+  <si>
+    <t>1716359851327b6gejejvd25orid3</t>
+  </si>
+  <si>
+    <t>4010016</t>
+  </si>
+  <si>
+    <t>1716359851678nekjvxbz6vfkxdlq</t>
+  </si>
+  <si>
+    <t>4010017</t>
+  </si>
+  <si>
+    <t>1716359852026wxmfelm4j2hkjsqw</t>
+  </si>
+  <si>
+    <t>4010018</t>
+  </si>
+  <si>
+    <t>1716359852403nqw4pib5fu3ryshz</t>
+  </si>
+  <si>
+    <t>4010019</t>
+  </si>
+  <si>
+    <t>1716359852736dr4ezpwz5w7aqu2o</t>
+  </si>
+  <si>
+    <t>4010020</t>
+  </si>
+  <si>
+    <t>17163598531043r7tuefp7g5mmlii</t>
+  </si>
+  <si>
+    <t>4010021</t>
+  </si>
+  <si>
+    <t>17163598534605mxykbw55wisoqxk</t>
+  </si>
+  <si>
+    <t>4010022</t>
+  </si>
+  <si>
+    <t>1716359853788qaqx4m6nklp6ikp3</t>
+  </si>
+  <si>
+    <t>4010023</t>
+  </si>
+  <si>
+    <t>17163598541342do7pef4keed7nxl</t>
+  </si>
+  <si>
+    <t>4010024</t>
+  </si>
+  <si>
+    <t>17163598544914a4by4drq5ejxto3</t>
+  </si>
+  <si>
+    <t>4010025</t>
+  </si>
+  <si>
+    <t>1716359854833rv3k7qhthvzgzpzq</t>
+  </si>
+  <si>
+    <t>4010026</t>
+  </si>
+  <si>
+    <t>1716359855233owbb6qcmpytcxtmp</t>
+  </si>
+  <si>
+    <t>4010027</t>
+  </si>
+  <si>
+    <t>1716359855601r7r2budubnhlllmd</t>
+  </si>
+  <si>
+    <t>4010028</t>
+  </si>
+  <si>
+    <t>17163598559394bjoi3j742tjw4sg</t>
+  </si>
+  <si>
+    <t>4010029</t>
+  </si>
+  <si>
+    <t>1716359856290rpo6d4d7d4ijsv47</t>
+  </si>
+  <si>
+    <t>4010030</t>
+  </si>
+  <si>
+    <t>1716359856936vsljigdneenxdcrg</t>
+  </si>
+  <si>
+    <t>4010031</t>
+  </si>
+  <si>
+    <t>1716359857294lzpqjxskkrrw7cv6</t>
+  </si>
+  <si>
+    <t>4010032</t>
+  </si>
+  <si>
+    <t>1716359857661wdyn43mmwhozern2</t>
+  </si>
+  <si>
+    <t>4010033</t>
+  </si>
+  <si>
+    <t>1716359858013oljksa4zp4natjx6</t>
+  </si>
+  <si>
+    <t>4010034</t>
+  </si>
+  <si>
+    <t>17163598583736b55stjbjidkglxe</t>
+  </si>
+  <si>
+    <t>4010035</t>
+  </si>
+  <si>
+    <t>17163598587416hvnyo4imasrsmk5</t>
+  </si>
+  <si>
+    <t>4010036</t>
+  </si>
+  <si>
+    <t>1716359859116i2q7bic5f77avkrf</t>
+  </si>
+  <si>
+    <t>4010037</t>
+  </si>
+  <si>
+    <t>1716359859460aevpddh2noa3bbc5</t>
+  </si>
+  <si>
+    <t>4010038</t>
+  </si>
+  <si>
+    <t>1716359859851nwzfsnidhblm7kjf</t>
+  </si>
+  <si>
+    <t>4010039</t>
+  </si>
+  <si>
+    <t>1716359860169qua232vksoonddls</t>
+  </si>
+  <si>
+    <t>4010040</t>
+  </si>
+  <si>
+    <t>1716359860514wmlis2laypa622u5</t>
+  </si>
+  <si>
+    <t>4010041</t>
+  </si>
+  <si>
+    <t>1716359860887eixvrokrx242di2o</t>
+  </si>
+  <si>
+    <t>4010042</t>
+  </si>
+  <si>
+    <t>1716359861228ox6mziyvfsjatvp4</t>
+  </si>
+  <si>
+    <t>4010043</t>
+  </si>
+  <si>
+    <t>1716359861564ciqxnn5k2rvbjty3</t>
+  </si>
+  <si>
+    <t>4010044</t>
+  </si>
+  <si>
+    <t>1716359861919w36pcn5rs2no3osx</t>
+  </si>
+  <si>
+    <t>4010045</t>
+  </si>
+  <si>
+    <t>1716359862576mmht5lly4qb574aa</t>
+  </si>
+  <si>
+    <t>4010046</t>
+  </si>
+  <si>
+    <t>1716359862897q6bjrravopbg4sme</t>
+  </si>
+  <si>
+    <t>4010047</t>
+  </si>
+  <si>
+    <t>1716359863248jp3kbjbhd4aei6tu</t>
+  </si>
+  <si>
+    <t>4010048</t>
+  </si>
+  <si>
+    <t>1716359863606dzqoayvsbec563ps</t>
+  </si>
+  <si>
+    <t>4010049</t>
+  </si>
+  <si>
+    <t>1716359863940wylx4cmiwq6zpjwy</t>
+  </si>
+  <si>
+    <t>4010050</t>
+  </si>
+  <si>
+    <t>17163598642804wtg2tzgelmtjjbw</t>
+  </si>
+  <si>
+    <t>4010051</t>
+  </si>
+  <si>
+    <t>17163598646184sc3vpgicngxjriq</t>
+  </si>
+  <si>
+    <t>4010052</t>
+  </si>
+  <si>
+    <t>1716359864950ggfccf5whguv2wba</t>
+  </si>
+  <si>
+    <t>4010053</t>
+  </si>
+  <si>
+    <t>1716359865285jhcvqa7o6slmuupq</t>
+  </si>
+  <si>
+    <t>4010054</t>
+  </si>
+  <si>
+    <t>1716359865662k53mjznpjlwzylzy</t>
+  </si>
+  <si>
+    <t>4010055</t>
+  </si>
+  <si>
+    <t>1716359865993yumlardatx2xniti</t>
+  </si>
+  <si>
+    <t>4010056</t>
+  </si>
+  <si>
+    <t>171635986632734tb6seedoskyfzq</t>
+  </si>
+  <si>
+    <t>4010057</t>
+  </si>
+  <si>
+    <t>1716359866680tdjmqkj2er4ulnep</t>
+  </si>
+  <si>
+    <t>4010058</t>
+  </si>
+  <si>
+    <t>1716359867006buxou4byhmosoey4</t>
+  </si>
+  <si>
+    <t>4010059</t>
+  </si>
+  <si>
+    <t>1716359867343vx7gt3hztm5tcc7p</t>
+  </si>
+  <si>
+    <t>4010060</t>
+  </si>
+  <si>
+    <t>1716359868025qswahzl6cxo5bcne</t>
+  </si>
+  <si>
+    <t>4010061</t>
+  </si>
+  <si>
+    <t>1716359868363srwpmatrnthuwrcg</t>
+  </si>
+  <si>
+    <t>4010062</t>
+  </si>
+  <si>
+    <t>1716359868699kvtnfi5oghw4hjr7</t>
+  </si>
+  <si>
+    <t>4010063</t>
+  </si>
+  <si>
+    <t>1716359869067j7sk4feoweeejin7</t>
+  </si>
+  <si>
+    <t>4010064</t>
+  </si>
+  <si>
+    <t>1716359869404rsp4h2en7anuoypt</t>
+  </si>
+  <si>
+    <t>4010065</t>
+  </si>
+  <si>
+    <t>1716359869752irgknrftyojyphd6</t>
+  </si>
+  <si>
+    <t>4010066</t>
+  </si>
+  <si>
+    <t>17163598701127qiakovre6nmcdz4</t>
+  </si>
+  <si>
+    <t>4010067</t>
+  </si>
+  <si>
+    <t>1716359870457yringuwlg7gcakif</t>
+  </si>
+  <si>
+    <t>4010068</t>
+  </si>
+  <si>
+    <t>1716359870831r2akhybcbs7x5stu</t>
+  </si>
+  <si>
+    <t>4010069</t>
+  </si>
+  <si>
+    <t>1716359871157djjeqd6f6uccer3v</t>
+  </si>
+  <si>
+    <t>4010070</t>
+  </si>
+  <si>
+    <t>1716359871533f7j7e7dqydeaumye</t>
+  </si>
+  <si>
+    <t>4010071</t>
+  </si>
+  <si>
+    <t>1716359871902hpi77qwctcolu43o</t>
+  </si>
+  <si>
+    <t>4010072</t>
+  </si>
+  <si>
+    <t>17163598722402kauuzksvrxl5ca3</t>
+  </si>
+  <si>
+    <t>4010073</t>
+  </si>
+  <si>
+    <t>1716359872584vzwehrl5xpwyyewu</t>
+  </si>
+  <si>
+    <t>4010074</t>
+  </si>
+  <si>
+    <t>1716359872925fpcujfotmkuw3q7k</t>
+  </si>
+  <si>
+    <t>4010075</t>
+  </si>
+  <si>
+    <t>1716359873558xrvuull5flfat7td</t>
+  </si>
+  <si>
+    <t>4010076</t>
+  </si>
+  <si>
+    <t>1716359873889nbvuklu3ubcdnjru</t>
+  </si>
+  <si>
+    <t>4010077</t>
+  </si>
+  <si>
+    <t>1716359874259o545tim67dyokms4</t>
+  </si>
+  <si>
+    <t>4010078</t>
+  </si>
+  <si>
+    <t>1716359874608ngzxyzgtl3zbg7ua</t>
+  </si>
+  <si>
+    <t>4010079</t>
+  </si>
+  <si>
+    <t>171635987495152ziimioffe4fpzh</t>
+  </si>
+  <si>
+    <t>4010080</t>
+  </si>
+  <si>
+    <t>1716359875272e7xjdfqlm25elzhp</t>
+  </si>
+  <si>
+    <t>4010081</t>
+  </si>
+  <si>
+    <t>1716359875620gfurklsmv6n3omcl</t>
+  </si>
+  <si>
+    <t>4010082</t>
+  </si>
+  <si>
+    <t>1716359875951ovg7uecnmhyn4br7</t>
+  </si>
+  <si>
+    <t>4010083</t>
+  </si>
+  <si>
+    <t>1716359876317blv7fhszrisvyzi5</t>
+  </si>
+  <si>
+    <t>4010084</t>
+  </si>
+  <si>
+    <t>1716359876683nd3wirtp6kj2hlni</t>
+  </si>
+  <si>
+    <t>4010085</t>
+  </si>
+  <si>
+    <t>1716359877082zlaovnqn5epysyj6</t>
+  </si>
+  <si>
+    <t>4010086</t>
+  </si>
+  <si>
+    <t>1716359877421cx2eer7muxg2akn3</t>
+  </si>
+  <si>
+    <t>4010087</t>
+  </si>
+  <si>
+    <t>1716359877810yz2wvpknly6tyewe</t>
+  </si>
+  <si>
+    <t>4010088</t>
+  </si>
+  <si>
+    <t>1716359878180irlpynpdpuum7cbp</t>
+  </si>
+  <si>
+    <t>4010089</t>
+  </si>
+  <si>
+    <t>1716359878527dia2qpapzcrcuash</t>
+  </si>
+  <si>
+    <t>4010090</t>
+  </si>
+  <si>
+    <t>1716359879155oyb5saape7cw4key</t>
+  </si>
+  <si>
+    <t>4010091</t>
+  </si>
+  <si>
+    <t>17163598794902762ywrec7ly3ph6</t>
+  </si>
+  <si>
+    <t>4010092</t>
+  </si>
+  <si>
+    <t>1716359879833xw3lsq6k5qlvydmo</t>
+  </si>
+  <si>
+    <t>4010093</t>
+  </si>
+  <si>
+    <t>1716359880174jbwnrodggu3denby</t>
+  </si>
+  <si>
+    <t>4010094</t>
+  </si>
+  <si>
+    <t>1716359880530epq2weo7dt6yqhnv</t>
+  </si>
+  <si>
+    <t>4010095</t>
+  </si>
+  <si>
+    <t>1716359880898cr7pz3wkhg4f6eb6</t>
+  </si>
+  <si>
+    <t>4010096</t>
+  </si>
+  <si>
+    <t>171635988125475tokbf3xrydsfb6</t>
+  </si>
+  <si>
+    <t>4010097</t>
+  </si>
+  <si>
+    <t>1716359881624omijynii2hvmynsv</t>
+  </si>
+  <si>
+    <t>4010098</t>
+  </si>
+  <si>
+    <t>1716359881950mmch2snvekkxcww5</t>
+  </si>
+  <si>
+    <t>4010099</t>
+  </si>
+  <si>
+    <t>1716359882285yqcrid6v6qdrsvj2</t>
+  </si>
+  <si>
+    <t>4010100</t>
+  </si>
+  <si>
+    <t>1716359882624xkg3teywucwhsc62</t>
   </si>
   <si>
     <t/>
@@ -71,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -79,18 +673,810 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>4</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>4</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
